--- a/from_JB/Shrub_Allometry_Data_27October2020.xlsx
+++ b/from_JB/Shrub_Allometry_Data_27October2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\battl\Dropbox (Personal)\Shrub allometry\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kruth\Desktop\shrub_biomass\from_JB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3581BD39-04FE-4F5F-8337-108BB4C82863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB3734-AE99-498C-AC30-6211D6491ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="21820" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shrub_allom_15June2020" sheetId="1" r:id="rId1"/>
@@ -1036,13 +1036,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J547"/>
   <sheetViews>
-    <sheetView topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="E553" sqref="E553"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>1.70873187924157E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>1.0481036702936899</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>1.6015713684294599</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>1.19790891376787E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>0.31172453105244702</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>1.4633734929962101E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>6.6508301874659295E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>4.58061880352068E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>8.9727027779177996E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>0.37958531998040301</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>5.8106897720796802</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>9.3807453981366606</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>0.55417694409323903</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>3.2365472915445398E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>8.9727027779177996E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>2.1647536878642102E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>8.9727027779177996E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>7.6976873994583899E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>3.59439236624709E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>8.9727027779177996E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>2.2035327221819601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>11.5811671581934</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>0.40715040790523699</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>7.5429639612690895E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>2.2167077763729501E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>1.12814768904996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>3.1415926535897898E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>7.5866823646364406E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>7.6821443698047503E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>7.4264305087749902E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>28.579573608490801</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>9.1608841778678305E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>16.349167237285101</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>1.5393804002589899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>3.72568070133786E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>2.2804946736114402E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>2.2365439887372598</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>4.01505044446552</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>9.9930048926076306E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>7.7931132763111796E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>20.4282062299676</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>5.5571632449349798E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>13.7227908701455</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>4.7152761492722697E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>5.9611916951407096E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>2.6878288646869099E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>3.4636059005827398E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>5.3092915845667499E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>1.8529867453109399E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>1.2946189166178101E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>3.8359631698494702E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>2.3370504099595301E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>2.1895644158459399E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>0.19197594122073999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>3.1920591979770499E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>0.18016492139954199</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>4.3474615777436901E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>1.04901115860159</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>3.5215731937799997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>0.95899079246236896</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>0.216228039050786</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>1.0636176087993601E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>5.9568649366585603E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>1.3540020863541301E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>0.12831649839620901</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>7.6976873994583899E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>0.16858327318497399</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>4.0715040790523698E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>2.0005787681765901E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>0.132541155117124</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>1.03206227408945E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>5.4497914620169098E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>9.8872518153043307E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>2.8952917895483501E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>8.4948665353067998E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>4.4750173080629098E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>4.80289826473461E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>2.87722449019755E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>29</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>3.6477209015417802E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>5.0471453125787602E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>1.93099877408488E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>3.94081382466303E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>3.8290233916776897E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>4.0715040790523702E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>19.8507428272322</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>7.1157859001972204E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>9.8520345616575898E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>8.8580660619883098E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>2.8985610094034902E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>3.7103012308517501E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>4.84610773009208E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>8.2515894541944391E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>0.17813934812021401</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>7.8054882061232095E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>8.3673932717947402E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>2.2246316584434701E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>3.7085943642931399E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>2.6015528764377E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>2.07394202522138E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>7.4506011372535499E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>2.7025747152046999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>1.5781054384530101E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>0.36852845322016697</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>1.9322051456638601E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>3.09152823306218E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>0.96194380316294503</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>1.8169723125283499</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>2.71716348608981</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>1.50809366386699</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>3.4636059005827402</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>2.6466366945121301E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>4.8556719967301696</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>3.9235916215900302</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>3.1193269376707198</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>1.1737824639359999</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>1.14269027066908</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>0.36960523410218499</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>0.54314882290578403</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>0.40715040790523699</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>0.367883138673193</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>6.05023640826544E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>5.7414569239761896E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>3.5942887427769099</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>4.6376976150455901E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>1.0868653944359199E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>2.62388960020473E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>1.6971668912855401E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>5.34561624962388E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>0.107375758996267</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>1.76950284753261</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>3.2301730000504097E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>4.5541029761262203E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>0.18696121321735501</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>7.0685834705770298E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>8.4213141936541697E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>4.9185609070150398E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>0.45603673118774801</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>0.21598085068681999</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>5.8986074388399298E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>2.4439203234511798E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>3.3556050137357997E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>1.2271846303085101E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>0.91151370125046105</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>1.81332924314743E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>0.82033581529802002</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>5.0830466480258199E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>1.0028749148422E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>1.7720546061654901E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>1.3498803167926199E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>0.12541250439501</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>1.2212032754790201</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>0.45663540093779698</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>2.3975911309249902</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>0.52488650133703596</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>5.2813525548318498</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>6.8720485757611097E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>0.50315760506264695</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>38</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>6.4047154019208596</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>0.40005644822000003</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>0.13380244369918301</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>38</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>1.5162671552913101</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>0.33685256774616601</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>1.97558739861728E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>1.12993686729958</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>28</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>7.7931132763111796E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>0.23285504383361599</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>1.36847775990371E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>5.1673112315785705E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>0.27711674638050199</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>2.2167077763729501E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>2.8952917895483501E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>38</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>2.9033342667415399E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>38</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>1.1581167158193401E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>38</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>0.17323615451001301</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>9.0952319599912707E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>6.35256423934146E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>1.8857409903172699E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>7.6699039394282004E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>9.5278921002436595E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>7.7678254189451901E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>28</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>1.12814768904996E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>5.7481740417686502E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>8.3213131761500497E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>1.3976600140629E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>8.1712824919870503E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>8.9461759549490594E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>1.1716710859073201</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>38</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>4.2346187112193998E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>3.10400663908224E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>1.7706819265254099</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>0.29633313233173197</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>39</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>1.0868653944359199E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>3.97607820219958E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>0.41385049041152899</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>0.161597996897588</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>0.64212397689082001</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>1.06486431842801</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>9.3655903551757499E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>2.4983201418407402E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>1.97060797426134</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>5.5549719840591004E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>0.17534504871700099</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>5.8223215188795904E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>0.171653677349033</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>28</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>7.6649959863051301E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>28</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>8.2515894541944391E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>1.11688036699786E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>1.29182780789464E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>0.17579065221898599</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>39</v>
       </c>
@@ -7794,7 +7797,7 @@
         <v>2.7171634860898099E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>39</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>2.4314672465218901E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>6.1333550958977898E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>39</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>2.5967226777328101E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>22</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>2.38197302506091E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>39</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>5.0014469204414796E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>39</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>1.6695711414164101E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>0.106650983753607</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>5.29296786913869E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>2.1072578299145399</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>28</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>0.516827680008065</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -8146,7 +8149,7 @@
         <v>3.9408138246630302E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>0.22404488705959499</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>0.22522097368539301</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -8242,7 +8245,7 @@
         <v>0.88806008828071004</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>0.379312364666191</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -8306,7 +8309,7 @@
         <v>0.22032705759099699</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>0.60904200093886995</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8370,7 +8373,7 @@
         <v>1.1603788588794599</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>0.44202211777601003</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>0.92919772629751696</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>0.16181182154757301</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>1.1451547008801699</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>1.97558739861728E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>0.70733037135390497</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>1.7784736967708601</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>4.9701586211071402E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>0.80865858609046104</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>0.12007245661836501</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -8722,7 +8725,7 @@
         <v>0.27950113862825499</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>39</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>0.104921536997805</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>1.29929238126522</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -8818,7 +8821,7 @@
         <v>1.0274296521100399</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>0.32009260290825498</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -8882,7 +8885,7 @@
         <v>0.427936302130274</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -8914,7 +8917,7 @@
         <v>1.77977398822572</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>0.85014023046633203</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>1.19664828884726</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>1.2281665743623</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>1.7142970221318401</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>0.13624478655042299</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>6.3617251235193297E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>28</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>0.74065812195312597</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>4.7233865181676602E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>2.8700134040842098</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -9234,7 +9237,7 @@
         <v>2.45473871976706</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>5.20363668203387E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>1.4870540330208E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>9.1608841778678292E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>4.7413301173077203E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>38</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>2.3451863495341601E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>38</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>1.7296478177310101E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>6.4692461320884395E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>0.13735925869030199</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>1.1920961819605599E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>0.25944651488868897</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -9586,7 +9589,7 @@
         <v>4.1692201769496201E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -9618,7 +9621,7 @@
         <v>0.121211380166566</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>1.8857409903172699E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>7.4071222803260298E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>1.57632552986521E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>6.04761494554556E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>0.14086292775119999</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>5.7149546447000502E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>9.2994920311423798E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>9.3509114598513896E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -9906,7 +9909,7 @@
         <v>3.9549007261217302E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>26</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>5.33321027498594</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>39</v>
       </c>
@@ -9970,7 +9973,7 @@
         <v>0.18050363024799301</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>39</v>
       </c>
@@ -10002,7 +10005,7 @@
         <v>0.95413690614886704</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>0.36847465540947</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>38</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>1.4870540330208</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>1.7789464750493</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -10130,7 +10133,7 @@
         <v>1.75890880805608E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>39</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>1.9706079742613399E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>39</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>5.3456162496238798E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>38</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v>2.2925554441581099E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>38</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>4.7245563864035001</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>39</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>2.000077401405</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>0.94197005383576005</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>9.1460843312263104E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>1.6143825397973699</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>39</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>0.686908479725171</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>39</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>0.63299562586837499</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>39</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>7.3974775908795101E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>22</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>9.9844232395752703E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>22</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>1.33755270721993E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>22</v>
       </c>
@@ -10578,7 +10581,7 @@
         <v>0.15298756884001399</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>0.12266587276983</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>1.1295600803846699</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>38</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>0.67469701679638305</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>38</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>0.76418060059733905</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>24</v>
       </c>
@@ -10738,7 +10741,7 @@
         <v>0.15305690378987899</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>38</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>2.17612366341976</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>1.94209821727956</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>3.7709773151906698</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>26</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>9.5552671532288809</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>26</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>37.396058178434799</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>22</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>0.23710801612181701</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>24</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>11.0481962472552</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>38</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>2.7995863109493899E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>38</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>1.11285667206851</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>22</v>
       </c>
@@ -11058,7 +11061,7 @@
         <v>4.11780727686285</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>22</v>
       </c>
@@ -11090,7 +11093,7 @@
         <v>2.6878288646869099E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>38</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>0.81825018262113602</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>39</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>6.4242428173257602E-4</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>38</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>5.8986074388399298E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>38</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>0.23174448297659</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>39</v>
       </c>
@@ -11250,7 +11253,7 @@
         <v>1.4745442424901301</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>5.0686708457067002</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>38</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>1.4801455451118499</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>39</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>1.62597054777356E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>26</v>
       </c>
@@ -11378,7 +11381,7 @@
         <v>4.9579486249094203E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>26</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>3.82174338687551</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>26</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>0.10116651696267601</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>8.4110301901026405E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>26</v>
       </c>
@@ -11506,7 +11509,7 @@
         <v>0.58507577233233798</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>28</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>1.1010151277476901</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>28</v>
       </c>
@@ -11570,7 +11573,7 @@
         <v>2.5519051115992699</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>14.500405926239299</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>9.0792027688745003E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>28</v>
       </c>
@@ -11666,7 +11669,7 @@
         <v>0.33183072403542102</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -11698,7 +11701,7 @@
         <v>0.43124720895643398</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>5.9395736106932003E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>28</v>
       </c>
@@ -11762,7 +11765,7 @@
         <v>0.20344176676815201</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -11794,7 +11797,7 @@
         <v>3.0604421737549101</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>28</v>
       </c>
@@ -11826,7 +11829,7 @@
         <v>2.8055207794720198</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>28</v>
       </c>
@@ -11858,7 +11861,7 @@
         <v>0.160886269081917</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>28</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>0.21237166338267</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>28</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>1.9003338845427299E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>28</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>5.01398972911094E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>28</v>
       </c>
@@ -11986,7 +11989,7 @@
         <v>0.32431820210696599</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -12018,7 +12021,7 @@
         <v>0.38210111523137902</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>28</v>
       </c>
@@ -12050,7 +12053,7 @@
         <v>0.96194380316294503</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>28</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>0.13624478655042299</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>28</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>7.8129178763994098E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>28</v>
       </c>
@@ -12146,7 +12149,7 @@
         <v>4.9816566538697302E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>28</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>5.4242613093175199E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>28</v>
       </c>
@@ -12210,7 +12213,7 @@
         <v>1.11220233918712E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>28</v>
       </c>
@@ -12242,7 +12245,7 @@
         <v>3.8045943672033798E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>0.94360500737502695</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>28</v>
       </c>
@@ -12306,7 +12309,7 @@
         <v>0.51625443556006001</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>28</v>
       </c>
@@ -12338,7 +12341,7 @@
         <v>1.2468981242097801</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>28</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>0.35784703819796199</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>28</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>3.1494515439622801</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>28</v>
       </c>
@@ -12434,7 +12437,7 @@
         <v>1.2027636561653701</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>28</v>
       </c>
@@ -12466,7 +12469,7 @@
         <v>0.93655903551757402</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>28</v>
       </c>
@@ -12498,7 +12501,7 @@
         <v>8.9461759549490599E-4</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>28</v>
       </c>
@@ -12530,7 +12533,7 @@
         <v>9.1863310783619104E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>28</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>0.101787601976309</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>28</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>4.9087385212340497E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>28</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>5.1673112315785703E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>28</v>
       </c>
@@ -12658,7 +12661,7 @@
         <v>2.8274333882308102E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>28</v>
       </c>
@@ -12690,7 +12693,7 @@
         <v>1.32732289614168E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>28</v>
       </c>
@@ -12722,7 +12725,7 @@
         <v>6.7055410235281896E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>28</v>
       </c>
@@ -12754,7 +12757,7 @@
         <v>4.4473661876232602E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>28</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>6.3617251235193297E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>28</v>
       </c>
@@ -12818,7 +12821,7 @@
         <v>1.31205181060212E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>28</v>
       </c>
@@ -12850,7 +12853,7 @@
         <v>4.9875924968391496</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>28</v>
       </c>
@@ -12882,7 +12885,7 @@
         <v>0.56079392361986302</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>42</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>1.13097335529232</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>42</v>
       </c>
@@ -12946,7 +12949,7 @@
         <v>1.4957122623740999</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>42</v>
       </c>
@@ -12978,7 +12981,7 @@
         <v>0.51529973500506498</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>27.711674638050201</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>42</v>
       </c>
@@ -13042,7 +13045,7 @@
         <v>4.0828138126052904</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>42</v>
       </c>
@@ -13074,7 +13077,7 @@
         <v>0.12566370614359099</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>42</v>
       </c>
@@ -13106,7 +13109,7 @@
         <v>0.50265482457436605</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>42</v>
       </c>
@@ -13138,7 +13141,7 @@
         <v>0.53456162496238802</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>42</v>
       </c>
@@ -13170,7 +13173,7 @@
         <v>0.11341149479459101</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>42</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>0.26878288646869097</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>42</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>0.53456162496238802</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>42</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>1.69716689128554</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>42</v>
       </c>
@@ -13298,7 +13301,7 @@
         <v>0.11641564276958601</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>42</v>
       </c>
@@ -13330,7 +13333,7 @@
         <v>0.21647536878642101</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>42</v>
       </c>
@@ -13362,7 +13365,7 @@
         <v>3.1415926535897899E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>42</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>0.40715040790523699</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>42</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>7.7931132763111796E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>42</v>
       </c>
@@ -13458,7 +13461,7 @@
         <v>0.15904312808798299</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>42</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>0.282743338823081</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -13522,7 +13525,7 @@
         <v>1.2566370614359101E-3</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -13554,7 +13557,7 @@
         <v>0.19244218498645899</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>42</v>
       </c>
@@ -13586,7 +13589,7 @@
         <v>3.8359631698494701</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>42</v>
       </c>
@@ -13618,7 +13621,7 @@
         <v>6.4918066943320296</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>42</v>
       </c>
@@ -13650,7 +13653,7 @@
         <v>0.101787601976309</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>42</v>
       </c>
@@ -13682,7 +13685,7 @@
         <v>2.0484951247273</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>42</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>1.62860163162094</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>42</v>
       </c>
@@ -13746,7 +13749,7 @@
         <v>7.28223140597522</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>42</v>
       </c>
@@ -13778,7 +13781,7 @@
         <v>5.1070515574919</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
@@ -13810,7 +13813,7 @@
         <v>1.7553845301473801</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>42</v>
       </c>
@@ -13842,7 +13845,7 @@
         <v>4.4488093567484999</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>42</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>2.9864765163187901</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>42</v>
       </c>
@@ -13906,7 +13909,7 @@
         <v>5.72555261116739E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>42</v>
       </c>
@@ -13938,7 +13941,7 @@
         <v>1.7671458676442499E-4</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>42</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>1.22718463030851E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>42</v>
       </c>
@@ -14002,7 +14005,7 @@
         <v>7.85398163397448E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>42</v>
       </c>
@@ -14034,7 +14037,7 @@
         <v>1.2566370614359101E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>42</v>
       </c>
@@ -14066,7 +14069,7 @@
         <v>7.85398163397448E-5</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>42</v>
       </c>
@@ -14098,7 +14101,7 @@
         <v>7.85398163397448E-5</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>42</v>
       </c>
@@ -14130,7 +14133,7 @@
         <v>0.47783624261100699</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>42</v>
       </c>
@@ -14162,7 +14165,7 @@
         <v>0.55417694409323903</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>42</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>4.5238934211692998E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>42</v>
       </c>
@@ -14226,7 +14229,7 @@
         <v>7.6453798817761198</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>42</v>
       </c>
@@ -14258,7 +14261,7 @@
         <v>1.0207034531513199</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>42</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>7.85398163397448E-5</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>42</v>
       </c>
@@ -14322,7 +14325,7 @@
         <v>0.78539816339744795</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>42</v>
       </c>
@@ -14354,7 +14357,7 @@
         <v>2.0106192982974598</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>42</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>15.657874500078201</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>42</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>0.45364597917836602</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>42</v>
       </c>
@@ -14450,7 +14453,7 @@
         <v>2.0106192982974598</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>43</v>
       </c>
@@ -14482,7 +14485,7 @@
         <v>8.1939804989092302</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>43</v>
       </c>
@@ -14514,7 +14517,7 @@
         <v>8.2447957600810504</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>43</v>
       </c>
@@ -14546,7 +14549,7 @@
         <v>0.686614709396134</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>43</v>
       </c>
@@ -14578,7 +14581,7 @@
         <v>0.27805058479678102</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>43</v>
       </c>
@@ -14610,7 +14613,7 @@
         <v>0.95899079246236896</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>43</v>
       </c>
@@ -14642,7 +14645,7 @@
         <v>3.1415926535897899E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>43</v>
       </c>
@@ -14674,7 +14677,7 @@
         <v>3.8013271108436499</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>43</v>
       </c>
@@ -14706,7 +14709,7 @@
         <v>8.1939804989092302</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>43</v>
       </c>
@@ -14738,7 +14741,7 @@
         <v>0.40151517608286003</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>43</v>
       </c>
@@ -14770,7 +14773,7 @@
         <v>1.59043128087983E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>43</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>0.34211943997592797</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>43</v>
       </c>
@@ -14834,7 +14837,7 @@
         <v>0.12566370614359099</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>43</v>
       </c>
@@ -14866,7 +14869,7 @@
         <v>3.4636059005827398E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>43</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>1.8385385606970801</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>43</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>0.91608841778678296</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>43</v>
       </c>
@@ -14962,7 +14965,7 @@
         <v>2.8274333882308102E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>43</v>
       </c>
@@ -14994,7 +14997,7 @@
         <v>6.4918066943320296</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>43</v>
       </c>
@@ -15026,7 +15029,7 @@
         <v>1.3684777599037099</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>43</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>1.1309733552923199E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>43</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>0.60821233773498395</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>43</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>2.7611654181941499E-4</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>43</v>
       </c>
@@ -15154,7 +15157,7 @@
         <v>4.90873852123405E-4</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>43</v>
       </c>
@@ -15186,7 +15189,7 @@
         <v>0.985203456165758</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>43</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>0.47783624261100699</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>43</v>
       </c>
@@ -15250,7 +15253,7 @@
         <v>1.10446616727766E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>43</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>3.1259043252759202</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>43</v>
       </c>
@@ -15314,7 +15317,7 @@
         <v>0.38484510006474898</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>43</v>
       </c>
@@ -15346,7 +15349,7 @@
         <v>3.3653525903417201</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>43</v>
       </c>
@@ -15378,7 +15381,7 @@
         <v>2.7611654181941499E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>43</v>
       </c>
@@ -15410,7 +15413,7 @@
         <v>3.4636059005827398E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>43</v>
       </c>
@@ -15442,7 +15445,7 @@
         <v>4.71435247579318E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>43</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>8.6590147514568604E-5</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>43</v>
       </c>
@@ -15506,7 +15509,7 @@
         <v>4.3802869484076998</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>43</v>
       </c>
@@ -15538,7 +15541,7 @@
         <v>2.0228420572153401E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -15570,7 +15573,7 @@
         <v>4.3650093362094002E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>3.4636059005827398E-4</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>0.45603673118774801</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -15666,7 +15669,7 @@
         <v>10.009821052684099</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -15698,7 +15701,7 @@
         <v>1.8301365674945998E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -15730,7 +15733,7 @@
         <v>0.13487435314909199</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -15762,7 +15765,7 @@
         <v>2.5024552631710302</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>44</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>7.0286538279498998E-3</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>44</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>3.66435367114713E-4</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>44</v>
       </c>
@@ -15858,7 +15861,7 @@
         <v>2.2902210444669499E-3</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>44</v>
       </c>
@@ -15890,7 +15893,7 @@
         <v>2.54469004940773E-4</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>44</v>
       </c>
@@ -15922,7 +15925,7 @@
         <v>8.5529859993982102E-4</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>44</v>
       </c>
@@ -15954,7 +15957,7 @@
         <v>6.6051985541725302E-4</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>44</v>
       </c>
@@ -15986,7 +15989,7 @@
         <v>7.7931132763111796E-4</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>44</v>
       </c>
@@ -16018,7 +16021,7 @@
         <v>3.84845100064749E-3</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>44</v>
       </c>
@@ -16050,7 +16053,7 @@
         <v>6.9397781717798496E-3</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -16082,7 +16085,7 @@
         <v>7.2382294738708794E-5</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>44</v>
       </c>
@@ -16114,7 +16117,7 @@
         <v>1.12220831178881E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>4.9875924968391502E-4</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -16178,7 +16181,7 @@
         <v>2.1895644158459399E-3</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -16210,7 +16213,7 @@
         <v>9.6211275016187402E-4</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>44</v>
       </c>
@@ -16242,7 +16245,7 @@
         <v>2.21670777637295E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -16274,7 +16277,7 @@
         <v>4.0715040790523698E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>44</v>
       </c>
@@ -16306,7 +16309,7 @@
         <v>7.2382294738708794E-5</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>44</v>
       </c>
@@ -16338,7 +16341,7 @@
         <v>1.81458391671346E-4</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>44</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>5.4118842196605396E-4</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>44</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>3.0790749597833501E-4</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>44</v>
       </c>
@@ -16434,7 +16437,7 @@
         <v>2.9416616971153298E-3</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -16466,7 +16469,7 @@
         <v>6.3617251235193305E-5</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>44</v>
       </c>
@@ -16498,7 +16501,7 @@
         <v>1.4657414684588501E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>44</v>
       </c>
@@ -16530,7 +16533,7 @@
         <v>2.8952917895483501E-4</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>44</v>
       </c>
@@ -16562,7 +16565,7 @@
         <v>8.9461759549490599E-4</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>1.1309733552923199E-4</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>44</v>
       </c>
@@ -16626,7 +16629,7 @@
         <v>2.87475362757551E-5</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>44</v>
       </c>
@@ -16658,7 +16661,7 @@
         <v>3.4211943997592797E-5</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>44</v>
       </c>
@@ -16690,7 +16693,7 @@
         <v>2.2965827695904699E-4</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>44</v>
       </c>
@@ -16722,7 +16725,7 @@
         <v>4.1909631397051201E-4</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>44</v>
       </c>
@@ -16754,7 +16757,7 @@
         <v>2.2965827695904699E-4</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>44</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>3.2685129967948199E-4</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>44</v>
       </c>
@@ -16818,7 +16821,7 @@
         <v>2.09116973393551E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>44</v>
       </c>
@@ -16850,7 +16853,7 @@
         <v>7.6699039394282004E-4</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>44</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>7.4661912907969904E-5</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>44</v>
       </c>
@@ -16914,7 +16917,7 @@
         <v>6.5597240005118304E-4</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>44</v>
       </c>
@@ -16946,7 +16949,7 @@
         <v>1.3892908112337401E-4</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>44</v>
       </c>
@@ -16978,7 +16981,7 @@
         <v>6.1028755603221999E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>44</v>
       </c>
@@ -17010,7 +17013,7 @@
         <v>1.4313881527918399E-4</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>44</v>
       </c>
@@ -17042,7 +17045,7 @@
         <v>6.4918066943320295E-4</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>38</v>
       </c>
@@ -17074,7 +17077,7 @@
         <v>6.9804022320000003</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>38</v>
       </c>
@@ -17106,7 +17109,7 @@
         <v>4.9616796350000003</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>38</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>5.2929447170000001</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>38</v>
       </c>
@@ -17170,7 +17173,7 @@
         <v>2.8719369179999998</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>38</v>
       </c>
@@ -17202,7 +17205,7 @@
         <v>5.1127190010000003</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>38</v>
       </c>
@@ -17234,7 +17237,7 @@
         <v>3.887621926</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>38</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>4.7865615310000003</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>38</v>
       </c>
@@ -17298,7 +17301,7 @@
         <v>5.5614591439999996</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>38</v>
       </c>
@@ -17330,7 +17333,7 @@
         <v>8.7471493339999995</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>38</v>
       </c>
@@ -17362,7 +17365,7 @@
         <v>3.035380483</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>24</v>
       </c>
@@ -17394,7 +17397,7 @@
         <v>6.1535772360000003</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>24</v>
       </c>
@@ -17426,7 +17429,7 @@
         <v>9.1480968279999999</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>24</v>
       </c>
@@ -17458,7 +17461,7 @@
         <v>1.3316102400000001</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>24</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>8.0424611079999995</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>24</v>
       </c>
@@ -17522,7 +17525,7 @@
         <v>5.6421877800000004</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>24</v>
       </c>
@@ -17554,7 +17557,7 @@
         <v>12.016567869999999</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>24</v>
       </c>
@@ -17586,7 +17589,7 @@
         <v>6.4098496110000003</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>24</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>1.3238683200000001</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>24</v>
       </c>
@@ -17650,7 +17653,7 @@
         <v>2.9683811599999999</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>24</v>
       </c>
@@ -17682,7 +17685,7 @@
         <v>4.8436167929999998</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -17714,7 +17717,7 @@
         <v>4.1499342539999997</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -17746,7 +17749,7 @@
         <v>2.0278433310000001</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -17778,7 +17781,7 @@
         <v>1.1917759910000001</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -17810,7 +17813,7 @@
         <v>2.6956837889999998</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -17842,7 +17845,7 @@
         <v>2.6037121000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -17874,7 +17877,7 @@
         <v>3.4064448000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -17906,7 +17909,7 @@
         <v>2.0254798200000002</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>3.2044796149999999</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>4.426596537</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -18002,7 +18005,7 @@
         <v>3.080781473</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>62</v>
       </c>
@@ -18034,7 +18037,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>62</v>
       </c>
@@ -18066,7 +18069,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>62</v>
       </c>
@@ -18098,7 +18101,7 @@
         <v>1.5169999999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>62</v>
       </c>
@@ -18130,7 +18133,7 @@
         <v>3.4470000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>62</v>
       </c>
@@ -18162,7 +18165,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>62</v>
       </c>
@@ -18194,7 +18197,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>62</v>
       </c>
@@ -18226,7 +18229,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>62</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>62</v>
       </c>
@@ -18290,7 +18293,7 @@
         <v>1.911</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>62</v>
       </c>
@@ -18322,7 +18325,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>62</v>
       </c>
@@ -18354,7 +18357,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>62</v>
       </c>
@@ -18386,7 +18389,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>62</v>
       </c>
@@ -18418,7 +18421,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>62</v>
       </c>
@@ -18450,7 +18453,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>62</v>
       </c>
@@ -18482,7 +18485,7 @@
         <v>3.819</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>62</v>
       </c>
@@ -18514,7 +18517,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>62</v>
       </c>
@@ -18555,16 +18558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -18572,7 +18575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18580,7 +18583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18588,7 +18591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18604,7 +18607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18612,7 +18615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18620,7 +18623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18628,7 +18631,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18636,7 +18639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
